--- a/opm_hero_property/heroes/105.xlsx
+++ b/opm_hero_property/heroes/105.xlsx
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS25"/>
+  <dimension ref="A1:AW25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6739,40 +6739,60 @@
       </c>
       <c r="AL1" t="inlineStr">
         <is>
+          <t>job_contact</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>attr_addition</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>pvp_addition</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
           <t>基础战力</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>装备战力</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>天赋战力</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>研究所战力</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>职阶战力</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>机械核心战力</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>限制器战力</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>收集战力</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
         <is>
           <t>总战力</t>
         </is>
@@ -6812,7 +6832,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L2" t="n">
         <v>105</v>
@@ -6839,13 +6859,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5446756.7674624</v>
+        <v>6361926.621990399</v>
       </c>
       <c r="U2" t="n">
-        <v>936099.394902</v>
+        <v>1086593.306622</v>
       </c>
       <c r="V2" t="n">
-        <v>788503.0772327</v>
+        <v>937225.5364727</v>
       </c>
       <c r="W2" t="n">
         <v>3380</v>
@@ -6884,7 +6904,7 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
@@ -6897,28 +6917,36 @@
         </is>
       </c>
       <c r="AL2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="n">
         <v>11703923.575325</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AP2" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AQ2" t="n">
         <v>1514665.2830457</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AR2" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP2" t="n">
-        <v>2006045.6</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
+        <v>2942293.486026</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1872484.1</v>
+      </c>
+      <c r="AU2" t="n">
         <v>635794.428003525</v>
       </c>
-      <c r="AS2" t="n">
-        <v>16455739.78637422</v>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>19264471.77240022</v>
       </c>
     </row>
     <row r="3">
@@ -6955,7 +6983,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L3" t="n">
         <v>105</v>
@@ -6982,13 +7010,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>679548.5732848</v>
+        <v>782612.1415408</v>
       </c>
       <c r="U3" t="n">
-        <v>135469.867774</v>
+        <v>152417.305414</v>
       </c>
       <c r="V3" t="n">
-        <v>105151.0658231</v>
+        <v>122248.3935431</v>
       </c>
       <c r="W3" t="n">
         <v>3380</v>
@@ -7027,7 +7055,7 @@
         <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
@@ -7040,28 +7068,36 @@
         </is>
       </c>
       <c r="AL3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="n">
         <v>1327160.279525</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AP3" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AQ3" t="n">
         <v>171142.9745349</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AR3" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP3" t="n">
-        <v>479008.6</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
+      <c r="AS3" t="n">
+        <v>585115.422362</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>212203.7</v>
+      </c>
+      <c r="AU3" t="n">
         <v>74534.28534832501</v>
       </c>
-      <c r="AS3" t="n">
-        <v>2234913.789408225</v>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>2553224.311770225</v>
       </c>
     </row>
     <row r="4">
@@ -7098,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>105</v>
@@ -7125,13 +7161,13 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>7526.620800000001</v>
+        <v>8008.620800000001</v>
       </c>
       <c r="U4" t="n">
-        <v>1567.5555</v>
+        <v>1646.5555</v>
       </c>
       <c r="V4" t="n">
-        <v>615.6804999999999</v>
+        <v>693.6804999999999</v>
       </c>
       <c r="W4" t="n">
         <v>600</v>
@@ -7170,25 +7206,21 @@
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="n">
         <v>19160.066625</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AP4" t="n">
         <v>4456.85</v>
       </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ4" t="n">
         <v>0</v>
       </c>
@@ -7196,7 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>23616.916625</v>
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1475.6</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>25092.516625</v>
       </c>
     </row>
     <row r="5">
@@ -7233,7 +7277,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>105</v>
@@ -7260,13 +7304,13 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>20158.1852</v>
+        <v>34325.1852</v>
       </c>
       <c r="U5" t="n">
-        <v>3910.8492</v>
+        <v>6239.849200000001</v>
       </c>
       <c r="V5" t="n">
-        <v>1907.278</v>
+        <v>4209.278</v>
       </c>
       <c r="W5" t="n">
         <v>777</v>
@@ -7305,25 +7349,21 @@
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="n">
         <v>49051.14318000001</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AP5" t="n">
         <v>11828.8</v>
       </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
@@ -7331,7 +7371,19 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>60879.94318000001</v>
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>43473.6</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>104353.54318</v>
       </c>
     </row>
     <row r="6">
@@ -7368,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
         <v>105</v>
@@ -7395,13 +7447,13 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>56470.5576</v>
+        <v>117207.5576</v>
       </c>
       <c r="U6" t="n">
-        <v>10104.55</v>
+        <v>20091.55</v>
       </c>
       <c r="V6" t="n">
-        <v>6149.022</v>
+        <v>16019.022</v>
       </c>
       <c r="W6" t="n">
         <v>1300</v>
@@ -7440,33 +7492,41 @@
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="n">
         <v>118284.5291</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AP6" t="n">
         <v>32682</v>
       </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AS6" t="n">
         <v>9356.799999999999</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>166483.8291</v>
+      <c r="AT6" t="n">
+        <v>186399.8</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>352883.6291</v>
       </c>
     </row>
     <row r="7">
@@ -7503,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
         <v>105</v>
@@ -7530,13 +7590,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>62578.46178432</v>
+        <v>123315.46178432</v>
       </c>
       <c r="U7" t="n">
-        <v>11613.55424</v>
+        <v>21600.55424</v>
       </c>
       <c r="V7" t="n">
-        <v>7326.7718836</v>
+        <v>17196.7718836</v>
       </c>
       <c r="W7" t="n">
         <v>1300</v>
@@ -7575,7 +7635,7 @@
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
@@ -7588,28 +7648,36 @@
         </is>
       </c>
       <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="n">
         <v>118284.5291</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AP7" t="n">
         <v>32682</v>
       </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AS7" t="n">
         <v>9538.799999999999</v>
       </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
+      <c r="AT7" t="n">
+        <v>186399.8</v>
+      </c>
+      <c r="AU7" t="n">
         <v>23292.09527102</v>
       </c>
-      <c r="AS7" t="n">
-        <v>189957.92437102</v>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>376357.72437102</v>
       </c>
     </row>
     <row r="8">
@@ -7646,7 +7714,7 @@
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
         <v>105</v>
@@ -7673,13 +7741,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>68928.06131424</v>
+        <v>129665.06131424</v>
       </c>
       <c r="U8" t="n">
-        <v>13167.31378</v>
+        <v>23154.31378</v>
       </c>
       <c r="V8" t="n">
-        <v>8505.5217672</v>
+        <v>18375.5217672</v>
       </c>
       <c r="W8" t="n">
         <v>1300</v>
@@ -7718,7 +7786,7 @@
         <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
@@ -7731,28 +7799,36 @@
         </is>
       </c>
       <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="n">
         <v>118284.5291</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AP8" t="n">
         <v>32682</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AQ8" t="n">
         <v>543.6069156</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AR8" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AS8" t="n">
         <v>9538.799999999999</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
+      <c r="AT8" t="n">
+        <v>186399.8</v>
+      </c>
+      <c r="AU8" t="n">
         <v>46596.84054204</v>
       </c>
-      <c r="AS8" t="n">
-        <v>213806.27655764</v>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>400206.07655764</v>
       </c>
     </row>
     <row r="9">
@@ -7789,7 +7865,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
         <v>105</v>
@@ -7816,31 +7892,31 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>240866.6824</v>
+        <v>421817.679224</v>
       </c>
       <c r="U9" t="n">
-        <v>40573.04</v>
+        <v>69225.02040000001</v>
       </c>
       <c r="V9" t="n">
-        <v>30432.7076</v>
+        <v>57865.90467600001</v>
       </c>
       <c r="W9" t="n">
-        <v>3380</v>
+        <v>3390</v>
       </c>
       <c r="X9" t="n">
-        <v>1440</v>
+        <v>1450</v>
       </c>
       <c r="Y9" t="n">
         <v>15000</v>
       </c>
       <c r="Z9" t="n">
-        <v>1650</v>
+        <v>1660</v>
       </c>
       <c r="AA9" t="n">
-        <v>2160</v>
+        <v>2170</v>
       </c>
       <c r="AB9" t="n">
-        <v>930</v>
+        <v>970</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -7861,33 +7937,41 @@
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="n">
         <v>540314.4771</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AP9" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP9" t="n">
-        <v>38885</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
       <c r="AS9" t="n">
-        <v>708627.7271</v>
+        <v>44279.894771</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>436768.05</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>94347.60000000005</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1245138.271871</v>
       </c>
     </row>
     <row r="10">
@@ -7924,7 +8008,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L10" t="n">
         <v>105</v>
@@ -7951,31 +8035,31 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>248543.07947808</v>
+        <v>486821.9296755174</v>
       </c>
       <c r="U10" t="n">
-        <v>42377.498832</v>
+        <v>80308.10848435201</v>
       </c>
       <c r="V10" t="n">
-        <v>31687.78248888</v>
+        <v>65682.35719704785</v>
       </c>
       <c r="W10" t="n">
-        <v>3380</v>
+        <v>3390</v>
       </c>
       <c r="X10" t="n">
-        <v>1440</v>
+        <v>1450</v>
       </c>
       <c r="Y10" t="n">
         <v>15000</v>
       </c>
       <c r="Z10" t="n">
-        <v>1650</v>
+        <v>1660</v>
       </c>
       <c r="AA10" t="n">
-        <v>2160</v>
+        <v>2170</v>
       </c>
       <c r="AB10" t="n">
-        <v>930</v>
+        <v>970</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -7996,7 +8080,7 @@
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
@@ -8009,28 +8093,40 @@
         </is>
       </c>
       <c r="AL10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO10" t="n">
         <v>540314.4771</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AP10" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AQ10" t="n">
         <v>2373.7569504</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AR10" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP10" t="n">
-        <v>38885</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
+      <c r="AS10" t="n">
+        <v>44279.894771</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>436768.05</v>
+      </c>
+      <c r="AU10" t="n">
         <v>24970.08667954</v>
       </c>
-      <c r="AS10" t="n">
-        <v>735971.57072994</v>
+      <c r="AV10" t="n">
+        <v>253425.9165996314</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1431560.432100571</v>
       </c>
     </row>
     <row r="11">
@@ -8067,7 +8163,7 @@
         <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L11" t="n">
         <v>105</v>
@@ -8094,31 +8190,31 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>285890.6563568</v>
+        <v>589016.4829380544</v>
       </c>
       <c r="U11" t="n">
-        <v>50700.8636</v>
+        <v>97641.802384</v>
       </c>
       <c r="V11" t="n">
-        <v>36713.58401516</v>
+        <v>77924.62315080088</v>
       </c>
       <c r="W11" t="n">
-        <v>3380</v>
+        <v>3390</v>
       </c>
       <c r="X11" t="n">
-        <v>1440</v>
+        <v>1450</v>
       </c>
       <c r="Y11" t="n">
         <v>15000</v>
       </c>
       <c r="Z11" t="n">
-        <v>1900</v>
+        <v>1910</v>
       </c>
       <c r="AA11" t="n">
-        <v>2160</v>
+        <v>2170</v>
       </c>
       <c r="AB11" t="n">
-        <v>930</v>
+        <v>970</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -8139,7 +8235,7 @@
         <v>5</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
@@ -8152,28 +8248,40 @@
         </is>
       </c>
       <c r="AL11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO11" t="n">
         <v>540314.4771</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AP11" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AQ11" t="n">
         <v>26323.8264544</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AR11" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP11" t="n">
-        <v>38885</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="n">
+      <c r="AS11" t="n">
+        <v>44279.894771</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>436768.05</v>
+      </c>
+      <c r="AU11" t="n">
         <v>124909.66972957</v>
       </c>
-      <c r="AS11" t="n">
-        <v>859861.22328397</v>
+      <c r="AV11" t="n">
+        <v>421938.8344497895</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1723963.002504759</v>
       </c>
     </row>
     <row r="12">
@@ -8210,7 +8318,7 @@
         <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L12" t="n">
         <v>105</v>
@@ -8237,31 +8345,31 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>296960.6373008</v>
+        <v>682689.2344414208</v>
       </c>
       <c r="U12" t="n">
-        <v>52536.746</v>
+        <v>108884.2656544</v>
       </c>
       <c r="V12" t="n">
-        <v>36713.58401516</v>
+        <v>88881.32989698873</v>
       </c>
       <c r="W12" t="n">
-        <v>3380</v>
+        <v>3400</v>
       </c>
       <c r="X12" t="n">
-        <v>1440</v>
+        <v>1460</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>2150</v>
+        <v>2170</v>
       </c>
       <c r="AA12" t="n">
-        <v>2160</v>
+        <v>2180</v>
       </c>
       <c r="AB12" t="n">
-        <v>930</v>
+        <v>1010</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -8282,7 +8390,7 @@
         <v>5</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
@@ -8295,28 +8403,40 @@
         </is>
       </c>
       <c r="AL12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO12" t="n">
         <v>540314.4771</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AP12" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AQ12" t="n">
         <v>50273.8959584</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AR12" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP12" t="n">
-        <v>38885</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="n">
+      <c r="AS12" t="n">
+        <v>44279.894771</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>436768.05</v>
+      </c>
+      <c r="AU12" t="n">
         <v>124909.66972957</v>
       </c>
-      <c r="AS12" t="n">
-        <v>883811.29278797</v>
+      <c r="AV12" t="n">
+        <v>632568.0768054959</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>1958542.314364466</v>
       </c>
     </row>
     <row r="13">
@@ -8353,7 +8473,7 @@
         <v>10</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
         <v>105</v>
@@ -8380,31 +8500,31 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>340140.6144336</v>
+        <v>822848.0070940094</v>
       </c>
       <c r="U13" t="n">
-        <v>62297.39311999999</v>
+        <v>131698.15036392</v>
       </c>
       <c r="V13" t="n">
-        <v>42875.36583384</v>
+        <v>106155.3785520533</v>
       </c>
       <c r="W13" t="n">
-        <v>3380</v>
+        <v>3430</v>
       </c>
       <c r="X13" t="n">
-        <v>1440</v>
+        <v>1490</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>2400</v>
+        <v>2450</v>
       </c>
       <c r="AA13" t="n">
-        <v>2160</v>
+        <v>2210</v>
       </c>
       <c r="AB13" t="n">
-        <v>930</v>
+        <v>1130</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -8425,7 +8545,7 @@
         <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
@@ -8438,28 +8558,40 @@
         </is>
       </c>
       <c r="AL13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO13" t="n">
         <v>540314.4771</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AP13" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AQ13" t="n">
         <v>74223.9654624</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AR13" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP13" t="n">
-        <v>38885</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
+      <c r="AS13" t="n">
+        <v>44279.894771</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>436768.05</v>
+      </c>
+      <c r="AU13" t="n">
         <v>247130.78794378</v>
       </c>
-      <c r="AS13" t="n">
-        <v>1029982.48050618</v>
+      <c r="AV13" t="n">
+        <v>883869.7460021839</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>2356015.171279364</v>
       </c>
     </row>
     <row r="14">
@@ -8496,7 +8628,7 @@
         <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L14" t="n">
         <v>105</v>
@@ -8523,31 +8655,31 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>308030.6182448</v>
+        <v>922069.8205921025</v>
       </c>
       <c r="U14" t="n">
-        <v>54372.6284</v>
+        <v>138453.6154112</v>
       </c>
       <c r="V14" t="n">
-        <v>36713.58401516</v>
+        <v>110070.5598373478</v>
       </c>
       <c r="W14" t="n">
-        <v>3380</v>
+        <v>3430</v>
       </c>
       <c r="X14" t="n">
-        <v>1440</v>
+        <v>1490</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>2330</v>
+        <v>2380</v>
       </c>
       <c r="AA14" t="n">
-        <v>2160</v>
+        <v>2210</v>
       </c>
       <c r="AB14" t="n">
-        <v>860</v>
+        <v>1060</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -8568,7 +8700,7 @@
         <v>5</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
@@ -8581,28 +8713,40 @@
         </is>
       </c>
       <c r="AL14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO14" t="n">
         <v>540314.4771</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AP14" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AQ14" t="n">
         <v>74223.9654624</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AR14" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP14" t="n">
-        <v>38703</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
+      <c r="AS14" t="n">
+        <v>44097.894771</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>436768.05</v>
+      </c>
+      <c r="AU14" t="n">
         <v>124909.66972957</v>
       </c>
-      <c r="AS14" t="n">
-        <v>907579.3622919701</v>
+      <c r="AV14" t="n">
+        <v>1174437.678931162</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>2524179.985994133</v>
       </c>
     </row>
     <row r="15">
@@ -8639,7 +8783,7 @@
         <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L15" t="n">
         <v>105</v>
@@ -8666,31 +8810,31 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>452042.40941496</v>
+        <v>1464220.123566431</v>
       </c>
       <c r="U15" t="n">
-        <v>79665.15616112</v>
+        <v>230066.4294745584</v>
       </c>
       <c r="V15" t="n">
-        <v>60302.85817753999</v>
+        <v>187209.4119546102</v>
       </c>
       <c r="W15" t="n">
-        <v>3380</v>
+        <v>3480</v>
       </c>
       <c r="X15" t="n">
-        <v>1440</v>
+        <v>1540</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>2470</v>
+        <v>2570</v>
       </c>
       <c r="AA15" t="n">
-        <v>2160</v>
+        <v>2260</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -8711,7 +8855,7 @@
         <v>6</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
@@ -8724,28 +8868,40 @@
         </is>
       </c>
       <c r="AL15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO15" t="n">
         <v>835377.9381100001</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AP15" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AQ15" t="n">
         <v>110868.96001776</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AR15" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP15" t="n">
-        <v>111419.8</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
+      <c r="AS15" t="n">
+        <v>128110.8587622</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>799148.3500000001</v>
+      </c>
+      <c r="AU15" t="n">
         <v>156917.823319783</v>
       </c>
-      <c r="AS15" t="n">
-        <v>1362111.921447543</v>
+      <c r="AV15" t="n">
+        <v>1965019.77547015</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4142971.105679893</v>
       </c>
     </row>
     <row r="16">
@@ -8782,7 +8938,7 @@
         <v>7</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L16" t="n">
         <v>105</v>
@@ -8809,31 +8965,31 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>458907.48551032</v>
+        <v>1499035.109311593</v>
       </c>
       <c r="U16" t="n">
-        <v>81359.80379824</v>
+        <v>236128.9824828566</v>
       </c>
       <c r="V16" t="n">
-        <v>61622.72958342</v>
+        <v>191987.3363595098</v>
       </c>
       <c r="W16" t="n">
-        <v>3380</v>
+        <v>3580</v>
       </c>
       <c r="X16" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>2540</v>
+        <v>2740</v>
       </c>
       <c r="AA16" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AB16" t="n">
-        <v>1070</v>
+        <v>1870</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -8854,7 +9010,7 @@
         <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
@@ -8867,28 +9023,40 @@
         </is>
       </c>
       <c r="AL16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO16" t="n">
         <v>835377.9381100001</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AP16" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AQ16" t="n">
         <v>110868.96001776</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AR16" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP16" t="n">
-        <v>111601.8</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
+      <c r="AS16" t="n">
+        <v>128292.8587622</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>799148.3500000001</v>
+      </c>
+      <c r="AU16" t="n">
         <v>183065.228695081</v>
       </c>
-      <c r="AS16" t="n">
-        <v>1388441.326822841</v>
+      <c r="AV16" t="n">
+        <v>2044192.036925444</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4248472.772510485</v>
       </c>
     </row>
     <row r="17">
@@ -8925,7 +9093,7 @@
         <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L17" t="n">
         <v>105</v>
@@ -8952,31 +9120,31 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1072630.43298512</v>
+        <v>2697480.376957937</v>
       </c>
       <c r="U17" t="n">
-        <v>190913.01059552</v>
+        <v>425961.7357211495</v>
       </c>
       <c r="V17" t="n">
-        <v>167365.48428</v>
+        <v>375618.71921216</v>
       </c>
       <c r="W17" t="n">
-        <v>3380</v>
+        <v>3580</v>
       </c>
       <c r="X17" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>2820</v>
+        <v>3020</v>
       </c>
       <c r="AA17" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AB17" t="n">
-        <v>1350</v>
+        <v>2150</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -8997,7 +9165,7 @@
         <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
@@ -9010,28 +9178,40 @@
         </is>
       </c>
       <c r="AL17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO17" t="n">
         <v>1923477.02586</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AP17" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AQ17" t="n">
         <v>244880.78220996</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AR17" t="n">
         <v>155697.55</v>
       </c>
-      <c r="AP17" t="n">
-        <v>685602</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
+      <c r="AS17" t="n">
+        <v>762508.0810344</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1276843.35</v>
+      </c>
+      <c r="AU17" t="n">
         <v>242865.682634248</v>
       </c>
-      <c r="AS17" t="n">
-        <v>3366830.240704208</v>
+      <c r="AV17" t="n">
+        <v>3092792.817165181</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>7813372.488903789</v>
       </c>
     </row>
     <row r="18">
@@ -9068,7 +9248,7 @@
         <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L18" t="n">
         <v>105</v>
@@ -9095,31 +9275,31 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5446756.7674624</v>
+        <v>9565449.840972748</v>
       </c>
       <c r="U18" t="n">
-        <v>936099.394902</v>
+        <v>1483354.916803396</v>
       </c>
       <c r="V18" t="n">
-        <v>788503.0772327</v>
+        <v>1270979.893776478</v>
       </c>
       <c r="W18" t="n">
-        <v>3380</v>
+        <v>3580</v>
       </c>
       <c r="X18" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>3380</v>
+        <v>3580</v>
       </c>
       <c r="AA18" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AB18" t="n">
-        <v>1910</v>
+        <v>2710</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -9140,7 +9320,7 @@
         <v>10</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
@@ -9153,28 +9333,40 @@
         </is>
       </c>
       <c r="AL18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO18" t="n">
         <v>11703923.575325</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AP18" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AQ18" t="n">
         <v>1514665.2830457</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AR18" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP18" t="n">
-        <v>2006045.6</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
+      <c r="AS18" t="n">
+        <v>2942293.486026</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1872484.1</v>
+      </c>
+      <c r="AU18" t="n">
         <v>635794.428003525</v>
       </c>
-      <c r="AS18" t="n">
-        <v>16455739.78637422</v>
+      <c r="AV18" t="n">
+        <v>7862665.883730706</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>27127137.65613093</v>
       </c>
     </row>
     <row r="19">
@@ -9211,7 +9403,7 @@
         <v>10</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L19" t="n">
         <v>105</v>
@@ -9238,31 +9430,31 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>8881164.716385601</v>
+        <v>16394077.66746583</v>
       </c>
       <c r="U19" t="n">
-        <v>1519957.889324</v>
+        <v>2640349.437613216</v>
       </c>
       <c r="V19" t="n">
-        <v>1276833.1827327</v>
+        <v>2256623.854605116</v>
       </c>
       <c r="W19" t="n">
-        <v>3380</v>
+        <v>3580</v>
       </c>
       <c r="X19" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>4290</v>
+        <v>4490</v>
       </c>
       <c r="AA19" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AB19" t="n">
-        <v>2820</v>
+        <v>3620</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -9283,7 +9475,7 @@
         <v>10</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
@@ -9296,28 +9488,40 @@
         </is>
       </c>
       <c r="AL19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>1,1,5000;2,1,5000;3,1,5000;4,1,5000;1,2,5000;2,2,5000;3,2,5000;4,2,5000;5,1,5000;5,2,5000</t>
+        </is>
+      </c>
+      <c r="AO19" t="n">
         <v>18987256.07945</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AP19" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AQ19" t="n">
         <v>2462676.9459807</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AR19" t="n">
         <v>1061573.2</v>
       </c>
-      <c r="AP19" t="n">
-        <v>3467427.6</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
+      <c r="AS19" t="n">
+        <v>6315392.2619175</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1872484.1</v>
+      </c>
+      <c r="AU19" t="n">
         <v>635794.428003525</v>
       </c>
-      <c r="AS19" t="n">
-        <v>26729035.45343423</v>
+      <c r="AV19" t="n">
+        <v>16159362.23562471</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>47608846.45097644</v>
       </c>
     </row>
     <row r="20">
@@ -9354,7 +9558,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
         <v>105</v>
@@ -9381,13 +9585,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>220320.32406032</v>
+        <v>227160.32406032</v>
       </c>
       <c r="U20" t="n">
-        <v>40579.89342931999</v>
+        <v>41703.89342931999</v>
       </c>
       <c r="V20" t="n">
-        <v>27257.23472436</v>
+        <v>28391.23472436</v>
       </c>
       <c r="W20" t="n">
         <v>1300</v>
@@ -9426,7 +9630,7 @@
         <v>1</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
@@ -9439,28 +9643,36 @@
         </is>
       </c>
       <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="n">
         <v>566115.9338400001</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AP20" t="n">
         <v>32682</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AQ20" t="n">
         <v>2565.36057564</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AR20" t="n">
         <v>14696.9</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AS20" t="n">
         <v>32753.8</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
+      <c r="AT20" t="n">
+        <v>21116.1</v>
+      </c>
+      <c r="AU20" t="n">
         <v>13353.693972058</v>
       </c>
-      <c r="AS20" t="n">
-        <v>662167.688387698</v>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>683283.7883876979</v>
       </c>
     </row>
     <row r="21">
@@ -9497,7 +9709,7 @@
         <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
         <v>105</v>
@@ -9524,13 +9736,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>287494.99683656</v>
+        <v>301611.02480256</v>
       </c>
       <c r="U21" t="n">
-        <v>51294.88903600001</v>
+        <v>53638.06968600001</v>
       </c>
       <c r="V21" t="n">
-        <v>36465.70079772</v>
+        <v>38743.16533972</v>
       </c>
       <c r="W21" t="n">
         <v>1700</v>
@@ -9569,7 +9781,7 @@
         <v>2</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
@@ -9582,28 +9794,36 @@
         </is>
       </c>
       <c r="AL21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="n">
         <v>674374.55675</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AP21" t="n">
         <v>49023</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AQ21" t="n">
         <v>32922.5913766</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AR21" t="n">
         <v>19028.1</v>
       </c>
-      <c r="AP21" t="n">
-        <v>65507.60000000001</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
+      <c r="AS21" t="n">
+        <v>72243.09556750002</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>36643.9</v>
+      </c>
+      <c r="AU21" t="n">
         <v>17818.16264525</v>
       </c>
-      <c r="AS21" t="n">
-        <v>858674.0107718501</v>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>902053.4063393502</v>
       </c>
     </row>
     <row r="22">
@@ -9640,7 +9860,7 @@
         <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L22" t="n">
         <v>105</v>
@@ -9667,31 +9887,31 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>404036.253904</v>
+        <v>532370.38052868</v>
       </c>
       <c r="U22" t="n">
-        <v>69824.37244800001</v>
+        <v>88489.51012732799</v>
       </c>
       <c r="V22" t="n">
-        <v>52870.22862724</v>
+        <v>68708.87474637617</v>
       </c>
       <c r="W22" t="n">
-        <v>3380</v>
+        <v>3430</v>
       </c>
       <c r="X22" t="n">
-        <v>1440</v>
+        <v>1490</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>2150</v>
+        <v>2200</v>
       </c>
       <c r="AA22" t="n">
-        <v>2160</v>
+        <v>2210</v>
       </c>
       <c r="AB22" t="n">
-        <v>930</v>
+        <v>1130</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -9712,7 +9932,7 @@
         <v>5</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
@@ -9725,28 +9945,40 @@
         </is>
       </c>
       <c r="AL22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO22" t="n">
         <v>859091.3721</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AP22" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AQ22" t="n">
         <v>77243.3725232</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AR22" t="n">
         <v>23382.7</v>
       </c>
-      <c r="AP22" t="n">
-        <v>95389.39999999999</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="n">
+      <c r="AS22" t="n">
+        <v>103972.063721</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>49491</v>
+      </c>
+      <c r="AU22" t="n">
         <v>33658.19377863</v>
       </c>
-      <c r="AS22" t="n">
-        <v>1203072.23840183</v>
+      <c r="AV22" t="n">
+        <v>290722.1280760762</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1551868.030198906</v>
       </c>
     </row>
     <row r="23">
@@ -9783,7 +10015,7 @@
         <v>7</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L23" t="n">
         <v>105</v>
@@ -9810,31 +10042,31 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>466333.67543176</v>
+        <v>685822.603247929</v>
       </c>
       <c r="U23" t="n">
-        <v>82655.41750247999</v>
+        <v>118337.8550058022</v>
       </c>
       <c r="V23" t="n">
-        <v>61452.11157938</v>
+        <v>89133.43227893334</v>
       </c>
       <c r="W23" t="n">
-        <v>3380</v>
+        <v>3580</v>
       </c>
       <c r="X23" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>2540</v>
+        <v>2740</v>
       </c>
       <c r="AA23" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AB23" t="n">
-        <v>1070</v>
+        <v>1870</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -9855,7 +10087,7 @@
         <v>7</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
@@ -9868,28 +10100,40 @@
         </is>
       </c>
       <c r="AL23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO23" t="n">
         <v>939197.619655</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AP23" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AQ23" t="n">
         <v>123737.53020468</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AR23" t="n">
         <v>30363.65</v>
       </c>
-      <c r="AP23" t="n">
-        <v>151723</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
+      <c r="AS23" t="n">
+        <v>170490.4523931</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>90562.8</v>
+      </c>
+      <c r="AU23" t="n">
         <v>44497.197920627</v>
       </c>
-      <c r="AS23" t="n">
-        <v>1403826.197780307</v>
+      <c r="AV23" t="n">
+        <v>517935.0882184237</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>2031091.538391831</v>
       </c>
     </row>
     <row r="24">
@@ -9926,7 +10170,7 @@
         <v>8</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L24" t="n">
         <v>105</v>
@@ -9953,31 +10197,31 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>536166.038396</v>
+        <v>860952.1806312561</v>
       </c>
       <c r="U24" t="n">
-        <v>99945.77595808</v>
+        <v>153483.3822203466</v>
       </c>
       <c r="V24" t="n">
-        <v>75870.03333718001</v>
+        <v>118505.966396212</v>
       </c>
       <c r="W24" t="n">
-        <v>3380</v>
+        <v>3580</v>
       </c>
       <c r="X24" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y24" t="n">
         <v>15000</v>
       </c>
       <c r="Z24" t="n">
-        <v>2820</v>
+        <v>3020</v>
       </c>
       <c r="AA24" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AB24" t="n">
-        <v>1350</v>
+        <v>2150</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -9998,7 +10242,7 @@
         <v>8</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
@@ -10011,28 +10255,40 @@
         </is>
       </c>
       <c r="AL24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO24" t="n">
         <v>1065426.55267</v>
       </c>
-      <c r="AM24" t="n">
+      <c r="AP24" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN24" t="n">
+      <c r="AQ24" t="n">
         <v>139080.31861632</v>
       </c>
-      <c r="AO24" t="n">
+      <c r="AR24" t="n">
         <v>43173.05</v>
       </c>
-      <c r="AP24" t="n">
-        <v>260818.2</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="n">
+      <c r="AS24" t="n">
+        <v>303402.2621068</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>144698.6</v>
+      </c>
+      <c r="AU24" t="n">
         <v>53787.762909217</v>
       </c>
-      <c r="AS24" t="n">
-        <v>1676593.084195537</v>
+      <c r="AV24" t="n">
+        <v>754469.5784275292</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>2618345.324729866</v>
       </c>
     </row>
     <row r="25">
@@ -10069,7 +10325,7 @@
         <v>10</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L25" t="n">
         <v>105</v>
@@ -10096,31 +10352,31 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>679548.5732848</v>
+        <v>1468174.09861271</v>
       </c>
       <c r="U25" t="n">
-        <v>135469.867774</v>
+        <v>262455.947209854</v>
       </c>
       <c r="V25" t="n">
-        <v>105151.0658231</v>
+        <v>209062.4078826933</v>
       </c>
       <c r="W25" t="n">
-        <v>3380</v>
+        <v>3580</v>
       </c>
       <c r="X25" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y25" t="n">
         <v>15000</v>
       </c>
       <c r="Z25" t="n">
-        <v>3380</v>
+        <v>3580</v>
       </c>
       <c r="AA25" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AB25" t="n">
-        <v>1910</v>
+        <v>2710</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -10141,7 +10397,7 @@
         <v>10</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
@@ -10154,28 +10410,40 @@
         </is>
       </c>
       <c r="AL25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO25" t="n">
         <v>1327160.279525</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AP25" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN25" t="n">
+      <c r="AQ25" t="n">
         <v>171142.9745349</v>
       </c>
-      <c r="AO25" t="n">
+      <c r="AR25" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP25" t="n">
-        <v>479008.6</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
+      <c r="AS25" t="n">
+        <v>585115.422362</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>212203.7</v>
+      </c>
+      <c r="AU25" t="n">
         <v>74534.28534832501</v>
       </c>
-      <c r="AS25" t="n">
-        <v>2234913.789408225</v>
+      <c r="AV25" t="n">
+        <v>1946409.167915964</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4499633.479686189</v>
       </c>
     </row>
   </sheetData>
